--- a/archivos/temp_gestion-reservas-emp.xlsx
+++ b/archivos/temp_gestion-reservas-emp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,6 +1354,124 @@
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jose Benitez</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Arreglo Barba</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Jose Alfaro</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>fc270b3c-8f39-40f5-9881-5578b9e572dd</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Jose Benitez La Resserva se realizo con exito para el dia: 2024-09-06 a las: 10:00 con el encargado: Jose Alfaro para el servicio de : Arreglo Barba</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JJ benitez</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Corte Hombre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>15.000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Andres Garcia</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2c3f3e59-a2ab-4f91-8c82-ab44f2f8e7ac</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). JJ benitez La Resserva se realizo con exito para el dia: 2024-09-06 a las: 15:00 con el encargado: Andres Garcia para el servicio de : Corte Hombre</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/archivos/temp_gestion-reservas-emp.xlsx
+++ b/archivos/temp_gestion-reservas-emp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,6 +1472,124 @@
       </c>
       <c r="M17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>myyriam  valencia</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Corte Mujer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25.000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mario Vargas</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3e4e7ea4-36bb-4c30-993e-a7935499e97c</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). myyriam  valencia La Resserva se realizo con exito para el dia: 2024-09-15 a las: 11:00 con el encargado: Mario Vargas para el servicio de : Corte Mujer</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Un Futuro Mas Seguro</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Afeitar</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Andres Garcia</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ca451e14-98f2-441b-a9ea-932a0b16f54c</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Un Futuro Mas Seguro La Resserva se realizo con exito para el dia: 2024-09-17 a las: 12:00 con el encargado: Andres Garcia para el servicio de : Afeitar</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/archivos/temp_gestion-reservas-emp.xlsx
+++ b/archivos/temp_gestion-reservas-emp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PROCESO</t>
+          <t>NOMBRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -470,50 +470,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ENCARGADO</t>
+          <t>ESTILISTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PARTE PROCESAL</t>
+          <t>NOTAS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ACCION</t>
+          <t>UID</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>HECHOS</t>
+          <t>WHATSAPP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CAUSAS</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>UID</t>
+          <t>URL WEB</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>WHATSAPP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>TELEFONO</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>URL WEB</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>BOTON</t>
         </is>
@@ -522,7 +507,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cliente 10</t>
+          <t>Un Futuro Mas Seguro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,65 +516,111 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45557</v>
+        <v>45552</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Asesoria Financiera</t>
+          <t>Afeitar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Juan A Gaviria</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
+          <t>Andres Garcia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Asesoria Financiera</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>ca451e14-98f2-441b-a9ea-932a0b16f54c</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>41b5981b-c5a1-46e9-9ea0-a5cc858efedb</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Un Futuro Mas Seguro La Resserva se realizo con exito para el dia: 2024-09-17 a las: 12:00 con el encargado: Andres Garcia para el servicio de : Afeitar</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>otro nuevo cliente</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>josegarjagt@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arreglo Barba</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Jose Alfaro</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arreglo de Barba</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2da81bd7-36d9-42c7-92be-427742a80650</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>573205511091</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). - Proceso Cliente 10 La Agenda se creo con exito para el dia: 2024-09-22 a las: 10:00 con el abogado encargado: Juan A Gaviria para el servicio de : Asesoria Financiera para realizar Asesoria Financiera</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>573205200000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). otro nuevo cliente La Resserva se realizo con exito para el dia: 2024-09-24 a las: 14:00 con el encargado: Jose Alfaro para el servicio de : Arreglo Barba</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/archivos/temp_gestion-reservas-emp.xlsx
+++ b/archivos/temp_gestion-reservas-emp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Un Futuro Mas Seguro</t>
+          <t>Usuario1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -516,21 +516,21 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45552</v>
+        <v>45572</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Afeitar</t>
+          <t>Corte Mujer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.000</t>
+          <t>25.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,7 +541,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ca451e14-98f2-441b-a9ea-932a0b16f54c</t>
+          <t>b76ed2b3-9bb9-4d9e-ba83-68927163a4ed</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -556,71 +556,10 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Un Futuro Mas Seguro La Resserva se realizo con exito para el dia: 2024-09-17 a las: 12:00 con el encargado: Andres Garcia para el servicio de : Afeitar</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Usuario1 La Resserva se realizo con exito para el dia: 2024-10-07 a las: 10:00 con el encargado: Andres Garcia para el servicio de : Corte Mujer</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>otro nuevo cliente</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>josegarjagt@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45559</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Arreglo Barba</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Jose Alfaro</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Arreglo de Barba</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2da81bd7-36d9-42c7-92be-427742a80650</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>573205200000</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). otro nuevo cliente La Resserva se realizo con exito para el dia: 2024-09-24 a las: 14:00 con el encargado: Jose Alfaro para el servicio de : Arreglo Barba</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
